--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Onetouch Portal\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneTouch Portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B9BC5F-0BFB-47DD-9034-984CB0657F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502682F-1579-4611-A62C-C4F8A2721DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="在職員工" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">公用信箱!$A$1:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">在職員工!$A$1:$K$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">在職員工!$A$1:$L$119</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">部門編制!$A$1:$D$38</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="1">公用信箱!#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">在職員工!#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="2">部門編制!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">公用信箱!$D$1:$D$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">在職員工!$A$1:$K$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">在職員工!$A$1:$L$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">部門編制!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">公用信箱!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">在職員工!$1:$1</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="590">
   <si>
     <t>No.</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1361,10 +1361,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>部級</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>安全部</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2250,6 +2246,46 @@
   </si>
   <si>
     <t>分機號碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0792</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2782,7 +2818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2942,13 +2978,37 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3032,16 +3092,7 @@
     <cellStyle name="超連結" xfId="4" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3352,32 +3403,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:K8"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.25" style="13" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="13" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="15" customWidth="1"/>
-    <col min="7" max="8" width="11.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="36.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="191" width="14.375" style="13" customWidth="1"/>
-    <col min="192" max="16384" width="8.75" style="13"/>
+    <col min="3" max="4" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="60" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="7" customWidth="1"/>
+    <col min="11" max="11" width="36.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="192" width="14.375" style="13" customWidth="1"/>
+    <col min="193" max="16384" width="8.75" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3385,34 +3437,37 @@
         <v>201</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>339</v>
+        <v>587</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="24" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L1" s="24" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="9">
         <f t="shared" ref="A2:A116" si="0">ROW()-1</f>
         <v>1</v>
@@ -3423,20 +3478,25 @@
       <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="J2" s="12"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3445,22 +3505,27 @@
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3469,24 +3534,29 @@
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3495,24 +3565,29 @@
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11">
-        <v>4</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3521,20 +3596,25 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11">
-        <v>5</v>
-      </c>
-      <c r="I6" s="12"/>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>584</v>
+      </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3543,24 +3623,29 @@
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>7</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3569,56 +3654,62 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="54">
+        <v>3484</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="H8" s="11">
-        <v>3484</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="54">
+        <v>3528</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="H9" s="11">
-        <v>3528</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3627,26 +3718,29 @@
       <c r="C10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="I10" s="54">
+        <v>3488</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="H10" s="11">
-        <v>3488</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3655,26 +3749,29 @@
       <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="I11" s="54">
+        <v>3529</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="H11" s="11">
-        <v>3529</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3684,27 +3781,30 @@
         <v>53</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="H12" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="11">
+      <c r="I12" s="54">
         <v>3293</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3714,27 +3814,30 @@
         <v>53</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="54">
         <v>3301</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3744,27 +3847,30 @@
         <v>53</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="54">
         <v>3321</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="K14" s="12"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3774,27 +3880,30 @@
         <v>53</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="I15" s="54">
+        <v>3526</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="H15" s="11">
-        <v>3526</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="K15" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3804,27 +3913,30 @@
         <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="H16" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="I16" s="54">
+        <v>3523</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="H16" s="11">
-        <v>3523</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="K16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1">
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3833,26 +3945,29 @@
       <c r="C17" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="H17" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="54">
         <v>3477</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="K17" s="12"/>
-    </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3861,26 +3976,29 @@
       <c r="C18" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="54">
         <v>3269</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="K18" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3889,26 +4007,29 @@
       <c r="C19" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="I19" s="55">
+        <v>3481</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="H19" s="14">
-        <v>3481</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="K19" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3917,26 +4038,29 @@
       <c r="C20" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="54">
         <v>2920</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="K20" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3945,26 +4069,29 @@
       <c r="C21" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="H21" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="54">
         <v>3374</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="J21" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="K21" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1">
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3973,26 +4100,29 @@
       <c r="C22" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="H22" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="I22" s="54">
+        <v>3505</v>
+      </c>
+      <c r="J22" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="H22" s="11">
-        <v>3505</v>
-      </c>
-      <c r="I22" s="45" t="s">
+      <c r="K22" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1">
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4001,110 +4131,122 @@
       <c r="C23" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="H23" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="I23" s="54">
+        <v>3562</v>
+      </c>
+      <c r="J23" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="H23" s="11">
-        <v>3562</v>
-      </c>
-      <c r="I23" s="45" t="s">
+      <c r="K23" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D24" s="9"/>
+        <v>339</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="H24" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I24" s="54">
         <v>3459</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="J24" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>339</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="H25" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="54">
         <v>3482</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="J25" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="K25" s="49"/>
-    </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="J25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="9"/>
+        <v>339</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>339</v>
+      </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I26" s="54">
+        <v>3516</v>
+      </c>
+      <c r="J26" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="H26" s="11">
-        <v>3516</v>
-      </c>
-      <c r="I26" s="11" t="s">
+      <c r="K26" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4113,26 +4255,29 @@
       <c r="C27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="H27" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="H27" s="50">
-        <v>8</v>
-      </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="J27" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="K27" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="K27" s="49"/>
-    </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4141,26 +4286,29 @@
       <c r="C28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" s="54">
+        <v>3468</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="H28" s="11">
-        <v>3468</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="K28" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" customHeight="1">
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="18" customHeight="1">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4170,27 +4318,30 @@
         <v>35</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="11">
+      <c r="I29" s="54">
         <v>3299</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="18" customHeight="1">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4200,27 +4351,30 @@
         <v>35</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="H30" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="H30" s="11">
+      <c r="I30" s="54">
         <v>3415</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="J30" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="K30" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="K30" s="45"/>
-    </row>
-    <row r="31" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4230,55 +4384,61 @@
         <v>35</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H31" s="11">
+      <c r="I31" s="54">
         <v>3392</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="J31" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="K31" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="K31" s="45"/>
-    </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L31" s="45"/>
+    </row>
+    <row r="32" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="H32" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="I32" s="54">
         <v>3538</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="J32" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4287,26 +4447,29 @@
       <c r="C33" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="H33" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="H33" s="11">
+      <c r="I33" s="54">
         <v>3433</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="J33" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="K33" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="18" customHeight="1">
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" ht="18" customHeight="1">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4315,26 +4478,29 @@
       <c r="C34" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="H34" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="11">
+      <c r="I34" s="54">
         <v>3362</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="J34" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="K34" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1">
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" ht="18" customHeight="1">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4343,26 +4509,29 @@
       <c r="C35" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="I35" s="54">
+        <v>3561</v>
+      </c>
+      <c r="J35" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="H35" s="11">
-        <v>3561</v>
-      </c>
-      <c r="I35" s="51" t="s">
+      <c r="K35" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="J35" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4371,26 +4540,29 @@
       <c r="C36" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="I36" s="54">
+        <v>3494</v>
+      </c>
+      <c r="J36" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="H36" s="11">
-        <v>3494</v>
-      </c>
-      <c r="I36" s="12" t="s">
+      <c r="K36" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="J36" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4399,26 +4571,29 @@
       <c r="C37" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="I37" s="54">
+        <v>3504</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="H37" s="11">
-        <v>3504</v>
-      </c>
-      <c r="I37" s="11" t="s">
+      <c r="K37" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" customHeight="1">
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="18" customHeight="1">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4427,144 +4602,159 @@
       <c r="C38" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>309</v>
+      </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="9"/>
+      <c r="G38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="11">
+      <c r="I38" s="54">
         <v>3267</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="J38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="K38" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="D39" s="9"/>
+        <v>479</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>479</v>
+      </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="G39" s="11" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="11">
+      <c r="I39" s="54">
         <v>3335</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="K39" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="I40" s="54">
+        <v>3535</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="H40" s="11">
-        <v>3535</v>
-      </c>
-      <c r="I40" s="12" t="s">
+      <c r="K40" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="1:11" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" s="26" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="12" t="s">
+      <c r="H41" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="H41" s="11">
+      <c r="I41" s="54">
         <v>3518</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="K41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" ht="18" customHeight="1">
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" ht="18" customHeight="1">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="H42" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="H42" s="50">
+      <c r="I42" s="56">
         <v>3412</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="K42" s="12"/>
-    </row>
-    <row r="43" spans="1:11" ht="18" customHeight="1">
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4573,26 +4763,29 @@
       <c r="C43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="11">
+      <c r="I43" s="54">
         <v>3316</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="J43" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="K43" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K43" s="16"/>
-    </row>
-    <row r="44" spans="1:11" s="33" customFormat="1" ht="18" customHeight="1">
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" s="33" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4602,27 +4795,30 @@
         <v>17</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="11">
+      <c r="I44" s="54">
         <v>1145</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="J44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="K44" s="11"/>
-    </row>
-    <row r="45" spans="1:11" ht="18" customHeight="1">
+      <c r="K44" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="18" customHeight="1">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4632,27 +4828,30 @@
         <v>17</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="H45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="11">
+      <c r="I45" s="54">
         <v>1738</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="K45" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1">
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="18" customHeight="1">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4662,27 +4861,30 @@
         <v>17</v>
       </c>
       <c r="D46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="11">
+      <c r="I46" s="54">
         <v>3310</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J46" s="16" t="s">
+      <c r="K46" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K46" s="16"/>
-    </row>
-    <row r="47" spans="1:11" ht="18" customHeight="1">
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4692,27 +4894,30 @@
         <v>17</v>
       </c>
       <c r="D47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="H47" s="11">
+      <c r="I47" s="54">
         <v>3435</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="J47" s="16" t="s">
+      <c r="K47" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" ht="18" customHeight="1">
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" ht="18" customHeight="1">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4722,27 +4927,30 @@
         <v>161</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="47" t="s">
+      <c r="H48" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="H48" s="11">
+      <c r="I48" s="54">
         <v>3380</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="J48" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="K48" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11" ht="18" customHeight="1">
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="1:12" ht="18" customHeight="1">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4752,29 +4960,32 @@
         <v>17</v>
       </c>
       <c r="D49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="H49" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="I49" s="54">
+        <v>3551</v>
+      </c>
+      <c r="J49" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="H49" s="11">
-        <v>3551</v>
-      </c>
-      <c r="I49" s="12" t="s">
+      <c r="K49" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="J49" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="K49" s="16"/>
-    </row>
-    <row r="50" spans="1:11" ht="18" customHeight="1">
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:12" ht="18" customHeight="1">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4784,29 +4995,32 @@
         <v>17</v>
       </c>
       <c r="D50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="G50" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="H50" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="I50" s="54">
+        <v>3544</v>
+      </c>
+      <c r="J50" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="H50" s="11">
-        <v>3544</v>
-      </c>
-      <c r="I50" s="12" t="s">
+      <c r="K50" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="J50" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4816,29 +5030,32 @@
         <v>17</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="G51" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="11">
+      <c r="I51" s="54">
         <v>3319</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J51" s="16" t="s">
+      <c r="K51" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="K51" s="16"/>
-    </row>
-    <row r="52" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4848,29 +5065,32 @@
         <v>17</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="F52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="G52" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="H52" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="I52" s="54">
+        <v>3465</v>
+      </c>
+      <c r="J52" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="H52" s="11">
-        <v>3465</v>
-      </c>
-      <c r="I52" s="12" t="s">
+      <c r="K52" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="J52" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4880,29 +5100,32 @@
         <v>17</v>
       </c>
       <c r="D53" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="F53" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="G53" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="G53" s="44" t="s">
+      <c r="H53" s="44" t="s">
+        <v>576</v>
+      </c>
+      <c r="I53" s="57">
+        <v>3564</v>
+      </c>
+      <c r="J53" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="H53" s="44">
-        <v>3564</v>
-      </c>
-      <c r="I53" s="41" t="s">
+      <c r="K53" s="52" t="s">
         <v>578</v>
       </c>
-      <c r="J53" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="K53" s="52"/>
-    </row>
-    <row r="54" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L53" s="52"/>
+    </row>
+    <row r="54" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4912,29 +5135,32 @@
         <v>17</v>
       </c>
       <c r="D54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="G54" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="11">
+      <c r="I54" s="54">
         <v>2757</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="J54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J54" s="16" t="s">
+      <c r="K54" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4944,29 +5170,32 @@
         <v>17</v>
       </c>
       <c r="D55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="G55" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="11">
+      <c r="I55" s="54">
         <v>3271</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="J55" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="K55" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L55" s="16"/>
+    </row>
+    <row r="56" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4976,29 +5205,32 @@
         <v>17</v>
       </c>
       <c r="D56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="F56" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="G56" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="H56" s="11">
+      <c r="I56" s="54">
         <v>3430</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="J56" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="K56" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5008,29 +5240,32 @@
         <v>17</v>
       </c>
       <c r="D57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="G57" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="11">
+      <c r="I57" s="54">
         <v>3329</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="K57" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5039,30 +5274,33 @@
       <c r="C58" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="G58" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="H58" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="50">
-        <v>792</v>
-      </c>
-      <c r="I58" s="50" t="s">
+      <c r="I58" s="56" t="s">
+        <v>589</v>
+      </c>
+      <c r="J58" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="1:11" ht="18" customHeight="1">
+      <c r="K58" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="L58" s="14"/>
+    </row>
+    <row r="59" spans="1:12" ht="18" customHeight="1">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5072,29 +5310,32 @@
         <v>17</v>
       </c>
       <c r="D59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="F59" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="G59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="H59" s="11">
+      <c r="H59" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I59" s="54">
         <v>3475</v>
       </c>
-      <c r="I59" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" spans="1:11" ht="18" customHeight="1">
+      <c r="J59" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="L59" s="14"/>
+    </row>
+    <row r="60" spans="1:12" ht="18" customHeight="1">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5104,29 +5345,32 @@
         <v>17</v>
       </c>
       <c r="D60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H60" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="H60" s="11">
+      <c r="I60" s="54">
         <v>3445</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="J60" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="K60" s="14"/>
-    </row>
-    <row r="61" spans="1:11" ht="18" customHeight="1">
+      <c r="K60" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="L60" s="14"/>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5136,29 +5380,32 @@
         <v>17</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="I61" s="54">
+        <v>3556</v>
+      </c>
+      <c r="J61" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="H61" s="11">
-        <v>3556</v>
-      </c>
-      <c r="I61" s="14" t="s">
+      <c r="K61" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="J61" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="K61" s="14"/>
-    </row>
-    <row r="62" spans="1:11" ht="18" customHeight="1">
+      <c r="L61" s="14"/>
+    </row>
+    <row r="62" spans="1:12" ht="18" customHeight="1">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5168,27 +5415,30 @@
         <v>17</v>
       </c>
       <c r="D62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="9">
+      <c r="I62" s="58">
         <v>3307</v>
       </c>
-      <c r="I62" s="12" t="s">
+      <c r="J62" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="K62" s="14"/>
-    </row>
-    <row r="63" spans="1:11" ht="18" customHeight="1">
+      <c r="K62" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="1:12" ht="18" customHeight="1">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5198,27 +5448,30 @@
         <v>17</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="H63" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="I63" s="58">
+        <v>3563</v>
+      </c>
+      <c r="J63" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="H63" s="9">
-        <v>3563</v>
-      </c>
-      <c r="I63" s="12" t="s">
+      <c r="K63" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="J63" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L63" s="14"/>
+    </row>
+    <row r="64" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5228,27 +5481,30 @@
         <v>17</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="I64" s="58">
+        <v>3521</v>
+      </c>
+      <c r="J64" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="H64" s="9">
-        <v>3521</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" ht="18" customHeight="1">
+      <c r="K64" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="L64" s="14"/>
+    </row>
+    <row r="65" spans="1:12" ht="18" customHeight="1">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5258,27 +5514,30 @@
         <v>17</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="H65" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H65" s="11">
+      <c r="I65" s="54">
         <v>3347</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="J65" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J65" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="1:11" ht="18" customHeight="1">
+      <c r="K65" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="18" customHeight="1">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5288,27 +5547,30 @@
         <v>17</v>
       </c>
       <c r="D66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="9"/>
+      <c r="G66" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="H66" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="I66" s="59">
+        <v>3553</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="H66" s="12">
-        <v>3553</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="J66" s="11" t="s">
+      <c r="K66" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="1:11" ht="18" customHeight="1">
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" ht="18" customHeight="1">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -5318,27 +5580,30 @@
         <v>17</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="9"/>
+      <c r="G67" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="H67" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="I67" s="59">
+        <v>3557</v>
+      </c>
+      <c r="J67" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="H67" s="12">
-        <v>3557</v>
-      </c>
-      <c r="I67" s="14" t="s">
+      <c r="K67" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="J67" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="9">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -5348,29 +5613,32 @@
         <v>17</v>
       </c>
       <c r="D68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="G68" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="H68" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="I68" s="54">
+        <v>3470</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="K68" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="H68" s="11">
-        <v>3470</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="9">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -5380,29 +5648,32 @@
         <v>17</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="G69" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="H69" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H69" s="12">
+      <c r="I69" s="59">
         <v>3418</v>
       </c>
-      <c r="I69" s="12" t="s">
+      <c r="J69" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="K69" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="K69" s="14"/>
-    </row>
-    <row r="70" spans="1:11" ht="18" customHeight="1">
+      <c r="L69" s="14"/>
+    </row>
+    <row r="70" spans="1:12" ht="18" customHeight="1">
       <c r="A70" s="9">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -5412,29 +5683,32 @@
         <v>17</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="G70" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H70" s="11">
+      <c r="I70" s="54">
         <v>3222</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="J70" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="K70" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="9">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -5444,29 +5718,32 @@
         <v>17</v>
       </c>
       <c r="D71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="G71" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H71" s="11">
+      <c r="I71" s="54">
         <v>3229</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="J71" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="K71" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" ht="18" customHeight="1">
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" ht="18" customHeight="1">
       <c r="A72" s="9">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -5476,29 +5753,32 @@
         <v>17</v>
       </c>
       <c r="D72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="12" t="s">
+      <c r="G72" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H72" s="11">
+      <c r="I72" s="54">
         <v>3304</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="J72" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="K72" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="1:11" ht="18" customHeight="1">
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" ht="18" customHeight="1">
       <c r="A73" s="9">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -5508,29 +5788,32 @@
         <v>17</v>
       </c>
       <c r="D73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="F73" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F73" s="12" t="s">
+      <c r="G73" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="H73" s="11">
+      <c r="H73" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="I73" s="54">
         <v>3501</v>
       </c>
-      <c r="I73" s="12" t="s">
-        <v>450</v>
-      </c>
       <c r="J73" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="K73" s="12"/>
-    </row>
-    <row r="74" spans="1:11" ht="18" customHeight="1">
+        <v>449</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" ht="18" customHeight="1">
       <c r="A74" s="9">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -5540,29 +5823,32 @@
         <v>17</v>
       </c>
       <c r="D74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F74" s="12" t="s">
+      <c r="G74" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="H74" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H74" s="11">
+      <c r="I74" s="54">
         <v>3402</v>
       </c>
-      <c r="I74" s="14" t="s">
+      <c r="J74" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="K74" s="12"/>
-    </row>
-    <row r="75" spans="1:11" ht="18" customHeight="1">
+      <c r="K74" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" ht="18" customHeight="1">
       <c r="A75" s="9">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -5572,29 +5858,32 @@
         <v>17</v>
       </c>
       <c r="D75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="G75" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="H75" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="I75" s="54">
+        <v>3558</v>
+      </c>
+      <c r="J75" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="H75" s="11">
-        <v>3558</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="J75" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="K75" s="12"/>
-    </row>
-    <row r="76" spans="1:11" ht="18" customHeight="1">
+      <c r="K75" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" ht="18" customHeight="1">
       <c r="A76" s="9">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -5604,29 +5893,32 @@
         <v>17</v>
       </c>
       <c r="D76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="G76" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H76" s="11">
+      <c r="I76" s="54">
         <v>3163</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="K76" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="K76" s="12"/>
-    </row>
-    <row r="77" spans="1:11" ht="18" customHeight="1">
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" ht="18" customHeight="1">
       <c r="A77" s="9">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -5636,29 +5928,32 @@
         <v>161</v>
       </c>
       <c r="D77" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="G77" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="G77" s="12" t="s">
+      <c r="H77" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H77" s="12">
+      <c r="I77" s="59">
         <v>3403</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="J77" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="K77" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="K77" s="12"/>
-    </row>
-    <row r="78" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="9">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -5667,26 +5962,29 @@
       <c r="C78" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="9"/>
+      <c r="D78" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="9"/>
+      <c r="G78" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="I78" s="59">
+        <v>3533</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="G78" s="12" t="s">
+      <c r="K78" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="H78" s="12">
-        <v>3533</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="K78" s="12"/>
-    </row>
-    <row r="79" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="9">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -5695,26 +5993,29 @@
       <c r="C79" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="9"/>
+      <c r="D79" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="9"/>
+      <c r="G79" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="H79" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="G79" s="12" t="s">
+      <c r="I79" s="59">
+        <v>3559</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="H79" s="12">
-        <v>3559</v>
-      </c>
-      <c r="I79" s="11" t="s">
+      <c r="K79" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="K79" s="12"/>
-    </row>
-    <row r="80" spans="1:11" ht="18" customHeight="1">
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1">
       <c r="A80" s="9">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -5724,27 +6025,30 @@
         <v>160</v>
       </c>
       <c r="D80" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="12" t="s">
+      <c r="F80" s="9"/>
+      <c r="G80" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G80" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="H80" s="12">
+      <c r="H80" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I80" s="59">
         <v>3469</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="J80" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="9">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -5754,27 +6058,30 @@
         <v>243</v>
       </c>
       <c r="D81" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="12" t="s">
+      <c r="F81" s="9"/>
+      <c r="G81" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="H81" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="H81" s="11">
+      <c r="I81" s="54">
         <v>3416</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="J81" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="K81" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="K81" s="12"/>
-    </row>
-    <row r="82" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="9">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -5784,25 +6091,28 @@
         <v>28</v>
       </c>
       <c r="D82" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="E82" s="46"/>
-      <c r="F82" s="41" t="s">
+      <c r="F82" s="46"/>
+      <c r="G82" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="48" t="s">
+      <c r="H82" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="I82" s="57"/>
+      <c r="J82" s="41" t="s">
         <v>552</v>
       </c>
-      <c r="H82" s="44"/>
-      <c r="I82" s="41" t="s">
+      <c r="K82" s="41" t="s">
         <v>553</v>
       </c>
-      <c r="J82" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="K82" s="41"/>
-    </row>
-    <row r="83" spans="1:11" ht="18" customHeight="1">
+      <c r="L82" s="41"/>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1">
       <c r="A83" s="9">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -5812,29 +6122,32 @@
         <v>28</v>
       </c>
       <c r="D83" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="F83" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F83" s="12" t="s">
+      <c r="G83" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="H83" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="G83" s="12" t="s">
+      <c r="I83" s="59">
+        <v>3520</v>
+      </c>
+      <c r="J83" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="H83" s="12">
-        <v>3520</v>
-      </c>
-      <c r="I83" s="12" t="s">
+      <c r="K83" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="J83" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="K83" s="12"/>
-    </row>
-    <row r="84" spans="1:11" ht="18" customHeight="1">
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="1:12" ht="18" customHeight="1">
       <c r="A84" s="9">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -5844,29 +6157,32 @@
         <v>28</v>
       </c>
       <c r="D84" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="F84" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="G84" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="H84" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="I84" s="54">
+        <v>3440</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="K84" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="H84" s="11">
-        <v>3440</v>
-      </c>
-      <c r="I84" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="9">
         <f t="shared" si="0"/>
         <v>84</v>
@@ -5876,29 +6192,32 @@
         <v>28</v>
       </c>
       <c r="D85" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="G85" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G85" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="H85" s="11">
+      <c r="H85" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="I85" s="54">
         <v>3458</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="J85" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="J85" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11" ht="18" customHeight="1">
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" spans="1:12" ht="18" customHeight="1">
       <c r="A86" s="9">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -5908,29 +6227,32 @@
         <v>28</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="G86" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="H86" s="11">
+      <c r="I86" s="54">
         <v>3432</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="J86" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="K86" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="K86" s="12"/>
-    </row>
-    <row r="87" spans="1:11" ht="18" customHeight="1">
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="1:12" ht="18" customHeight="1">
       <c r="A87" s="9">
         <f t="shared" si="0"/>
         <v>86</v>
@@ -5940,29 +6262,32 @@
         <v>28</v>
       </c>
       <c r="D87" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="F87" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="12" t="s">
+      <c r="G87" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H87" s="11">
+      <c r="I87" s="54">
         <v>3313</v>
       </c>
-      <c r="I87" s="12" t="s">
+      <c r="J87" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="K87" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K87" s="12"/>
-    </row>
-    <row r="88" spans="1:11" ht="18" customHeight="1">
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="1:12" ht="18" customHeight="1">
       <c r="A88" s="9">
         <f t="shared" si="0"/>
         <v>87</v>
@@ -5972,29 +6297,32 @@
         <v>28</v>
       </c>
       <c r="D88" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="F88" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F88" s="12" t="s">
+      <c r="G88" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G88" s="47" t="s">
+      <c r="H88" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="I88" s="54">
+        <v>3493</v>
+      </c>
+      <c r="J88" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="H88" s="11">
-        <v>3493</v>
-      </c>
-      <c r="I88" s="14" t="s">
+      <c r="K88" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="K88" s="12"/>
-    </row>
-    <row r="89" spans="1:11" ht="18" customHeight="1">
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="1:12" ht="18" customHeight="1">
       <c r="A89" s="9">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -6004,29 +6332,32 @@
         <v>28</v>
       </c>
       <c r="D89" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="G89" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G89" s="47" t="s">
+      <c r="H89" s="47" t="s">
+        <v>535</v>
+      </c>
+      <c r="I89" s="54">
+        <v>3554</v>
+      </c>
+      <c r="J89" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="H89" s="11">
-        <v>3554</v>
-      </c>
-      <c r="I89" s="14" t="s">
+      <c r="K89" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="J89" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="K89" s="12"/>
-    </row>
-    <row r="90" spans="1:11" ht="18" customHeight="1">
+      <c r="L89" s="12"/>
+    </row>
+    <row r="90" spans="1:12" ht="18" customHeight="1">
       <c r="A90" s="9">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -6036,57 +6367,63 @@
         <v>160</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="H90" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H90" s="12">
+      <c r="I90" s="59">
         <v>3405</v>
       </c>
-      <c r="I90" s="12" t="s">
+      <c r="J90" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="K90" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="K90" s="12"/>
-    </row>
-    <row r="91" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L90" s="12"/>
+    </row>
+    <row r="91" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="9">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="F91" s="9"/>
+      <c r="G91" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="12" t="s">
+      <c r="H91" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="I91" s="54">
+        <v>3541</v>
+      </c>
+      <c r="J91" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="G91" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="H91" s="11">
-        <v>3541</v>
-      </c>
-      <c r="I91" s="14" t="s">
+      <c r="K91" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="1:11" ht="18" customHeight="1">
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="1:12" ht="18" customHeight="1">
       <c r="A92" s="9">
         <f t="shared" si="0"/>
         <v>91</v>
@@ -6096,27 +6433,30 @@
         <v>160</v>
       </c>
       <c r="D92" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E92" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="12" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="H92" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="H92" s="11">
+      <c r="I92" s="54">
         <v>3439</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="J92" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="K92" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="1:11" ht="18" customHeight="1">
+      <c r="L92" s="11"/>
+    </row>
+    <row r="93" spans="1:12" ht="18" customHeight="1">
       <c r="A93" s="9">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -6126,27 +6466,30 @@
         <v>28</v>
       </c>
       <c r="D93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="12" t="s">
+      <c r="F93" s="9"/>
+      <c r="G93" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H93" s="11">
+      <c r="I93" s="54">
         <v>2469</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="J93" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="K93" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K93" s="11"/>
-    </row>
-    <row r="94" spans="1:11" ht="18" customHeight="1">
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="1:12" ht="18" customHeight="1">
       <c r="A94" s="9">
         <f t="shared" si="0"/>
         <v>93</v>
@@ -6156,27 +6499,30 @@
         <v>160</v>
       </c>
       <c r="D94" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E94" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="9"/>
+      <c r="G94" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G94" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="H94" s="11">
+      <c r="H94" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="I94" s="54">
         <v>3471</v>
       </c>
-      <c r="I94" s="14" t="s">
+      <c r="J94" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="K94" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="K94" s="11"/>
-    </row>
-    <row r="95" spans="1:11" ht="18" customHeight="1">
+      <c r="L94" s="11"/>
+    </row>
+    <row r="95" spans="1:12" ht="18" customHeight="1">
       <c r="A95" s="9">
         <f t="shared" si="0"/>
         <v>94</v>
@@ -6186,27 +6532,30 @@
         <v>28</v>
       </c>
       <c r="D95" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="12" t="s">
+      <c r="F95" s="9"/>
+      <c r="G95" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="H95" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H95" s="11">
+      <c r="I95" s="54">
         <v>2863</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="J95" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J95" s="14" t="s">
+      <c r="K95" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="K95" s="14"/>
-    </row>
-    <row r="96" spans="1:11" ht="18" customHeight="1">
+      <c r="L95" s="14"/>
+    </row>
+    <row r="96" spans="1:12" ht="18" customHeight="1">
       <c r="A96" s="9">
         <f t="shared" si="0"/>
         <v>95</v>
@@ -6216,27 +6565,30 @@
         <v>28</v>
       </c>
       <c r="D96" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="12" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="H96" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H96" s="11">
+      <c r="I96" s="54">
         <v>3322</v>
       </c>
-      <c r="I96" s="12" t="s">
+      <c r="J96" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="K96" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="K96" s="11"/>
-    </row>
-    <row r="97" spans="1:11" ht="18" customHeight="1">
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="1:12" ht="18" customHeight="1">
       <c r="A97" s="9">
         <f t="shared" si="0"/>
         <v>96</v>
@@ -6246,57 +6598,63 @@
         <v>28</v>
       </c>
       <c r="D97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="12" t="s">
+      <c r="F97" s="9"/>
+      <c r="G97" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="H97" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="H97" s="11">
+      <c r="I97" s="54">
         <v>3431</v>
       </c>
-      <c r="I97" s="12" t="s">
+      <c r="J97" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="K97" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="K97" s="11"/>
-    </row>
-    <row r="98" spans="1:11" ht="18" customHeight="1">
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" ht="18" customHeight="1">
       <c r="A98" s="9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="12" t="s">
+      <c r="H98" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="I98" s="54">
+        <v>3560</v>
+      </c>
+      <c r="J98" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="H98" s="11">
-        <v>3560</v>
-      </c>
-      <c r="I98" s="12" t="s">
+      <c r="K98" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="J98" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="K98" s="11"/>
-    </row>
-    <row r="99" spans="1:11" ht="18" customHeight="1">
+      <c r="L98" s="11"/>
+    </row>
+    <row r="99" spans="1:12" ht="18" customHeight="1">
       <c r="A99" s="9">
         <f t="shared" si="0"/>
         <v>98</v>
@@ -6306,27 +6664,30 @@
         <v>28</v>
       </c>
       <c r="D99" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="G99" s="47" t="s">
+      <c r="H99" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="H99" s="11">
+      <c r="I99" s="54">
         <v>3426</v>
       </c>
-      <c r="I99" s="14" t="s">
+      <c r="J99" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="K99" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="1:11" ht="18" customHeight="1">
+      <c r="L99" s="11"/>
+    </row>
+    <row r="100" spans="1:12" ht="18" customHeight="1">
       <c r="A100" s="9">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -6335,28 +6696,31 @@
       <c r="C100" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G100" s="47" t="s">
+      <c r="H100" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="H100" s="11">
+      <c r="I100" s="54">
         <v>3427</v>
       </c>
-      <c r="I100" s="14" t="s">
+      <c r="J100" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="K100" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="1:11" ht="18" customHeight="1">
+      <c r="L100" s="11"/>
+    </row>
+    <row r="101" spans="1:12" ht="18" customHeight="1">
       <c r="A101" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -6366,27 +6730,30 @@
         <v>28</v>
       </c>
       <c r="D101" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G101" s="47" t="s">
+      <c r="H101" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="H101" s="11">
+      <c r="I101" s="54">
         <v>3428</v>
       </c>
-      <c r="I101" s="14" t="s">
+      <c r="J101" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="K101" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="K101" s="11"/>
-    </row>
-    <row r="102" spans="1:11" ht="18" customHeight="1">
+      <c r="L101" s="11"/>
+    </row>
+    <row r="102" spans="1:12" ht="18" customHeight="1">
       <c r="A102" s="9">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -6396,27 +6763,30 @@
         <v>28</v>
       </c>
       <c r="D102" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="9"/>
+      <c r="G102" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="G102" s="47" t="s">
+      <c r="H102" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="H102" s="11">
+      <c r="I102" s="54">
         <v>3429</v>
       </c>
-      <c r="I102" s="14" t="s">
+      <c r="J102" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="J102" s="11" t="s">
+      <c r="K102" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="K102" s="11"/>
-    </row>
-    <row r="103" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L102" s="11"/>
+    </row>
+    <row r="103" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="9">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -6426,27 +6796,30 @@
         <v>28</v>
       </c>
       <c r="D103" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="11" t="s">
+      <c r="F103" s="9"/>
+      <c r="G103" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="H103" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="G103" s="47" t="s">
+      <c r="I103" s="54">
+        <v>3517</v>
+      </c>
+      <c r="J103" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="H103" s="11">
-        <v>3517</v>
-      </c>
-      <c r="I103" s="14" t="s">
+      <c r="K103" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="K103" s="12"/>
-    </row>
-    <row r="104" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L103" s="12"/>
+    </row>
+    <row r="104" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="9">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -6456,27 +6829,30 @@
         <v>28</v>
       </c>
       <c r="D104" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="9"/>
+      <c r="G104" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="G104" s="47" t="s">
+      <c r="H104" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="H104" s="11">
+      <c r="I104" s="54">
         <v>3379</v>
       </c>
-      <c r="I104" s="14" t="s">
+      <c r="J104" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="K104" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K104" s="11"/>
-    </row>
-    <row r="105" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L104" s="11"/>
+    </row>
+    <row r="105" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="9">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -6486,27 +6862,30 @@
         <v>28</v>
       </c>
       <c r="D105" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="9"/>
+      <c r="G105" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="H105" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H105" s="11">
+      <c r="I105" s="54">
         <v>3359</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="J105" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J105" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="K105" s="11"/>
-    </row>
-    <row r="106" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="K105" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="L105" s="11"/>
+    </row>
+    <row r="106" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="9">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -6516,27 +6895,30 @@
         <v>28</v>
       </c>
       <c r="D106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="G106" s="47" t="s">
+      <c r="F106" s="9"/>
+      <c r="G106" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="H106" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="I106" s="54">
+        <v>3480</v>
+      </c>
+      <c r="J106" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="H106" s="11">
-        <v>3480</v>
-      </c>
-      <c r="I106" s="14" t="s">
+      <c r="K106" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="J106" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="K106" s="11"/>
-    </row>
-    <row r="107" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L106" s="11"/>
+    </row>
+    <row r="107" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="9">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -6546,27 +6928,30 @@
         <v>28</v>
       </c>
       <c r="D107" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="9"/>
+      <c r="G107" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="H107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="H107" s="11">
+      <c r="I107" s="54">
         <v>3453</v>
       </c>
-      <c r="I107" s="11" t="s">
+      <c r="J107" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="J107" s="11" t="s">
+      <c r="K107" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="K107" s="11"/>
-    </row>
-    <row r="108" spans="1:11" ht="18" customHeight="1">
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" spans="1:12" ht="18" customHeight="1">
       <c r="A108" s="9">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -6576,27 +6961,30 @@
         <v>160</v>
       </c>
       <c r="D108" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E108" s="9"/>
-      <c r="F108" s="12" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="H108" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="I108" s="54">
+        <v>3522</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="H108" s="11">
-        <v>3522</v>
-      </c>
-      <c r="I108" s="11" t="s">
+      <c r="K108" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="K108" s="12"/>
-    </row>
-    <row r="109" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L108" s="12"/>
+    </row>
+    <row r="109" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="9">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -6606,27 +6994,30 @@
         <v>160</v>
       </c>
       <c r="D109" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="9"/>
+      <c r="G109" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G109" s="47" t="s">
+      <c r="H109" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="H109" s="11">
+      <c r="I109" s="54">
         <v>3381</v>
       </c>
-      <c r="I109" s="14" t="s">
+      <c r="J109" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="J109" s="12" t="s">
+      <c r="K109" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="K109" s="12"/>
-    </row>
-    <row r="110" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1">
+      <c r="L109" s="12"/>
+    </row>
+    <row r="110" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="9">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -6638,27 +7029,30 @@
         <v>160</v>
       </c>
       <c r="D110" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="9"/>
+      <c r="G110" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G110" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="H110" s="11">
+      <c r="H110" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="I110" s="54">
         <v>3519</v>
       </c>
-      <c r="I110" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="J110" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="K110" s="11"/>
-    </row>
-    <row r="111" spans="1:11" ht="18" customHeight="1">
+      <c r="J110" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="L110" s="11"/>
+    </row>
+    <row r="111" spans="1:12" ht="18" customHeight="1">
       <c r="A111" s="9">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -6668,27 +7062,30 @@
         <v>160</v>
       </c>
       <c r="D111" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="11" t="s">
+      <c r="F111" s="9"/>
+      <c r="G111" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G111" s="47" t="s">
+      <c r="H111" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="I111" s="54">
+        <v>3542</v>
+      </c>
+      <c r="J111" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="H111" s="11">
-        <v>3542</v>
-      </c>
-      <c r="I111" s="14" t="s">
+      <c r="K111" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="J111" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="K111" s="11"/>
-    </row>
-    <row r="112" spans="1:11" ht="18" customHeight="1">
+      <c r="L111" s="11"/>
+    </row>
+    <row r="112" spans="1:12" ht="18" customHeight="1">
       <c r="A112" s="9">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -6698,27 +7095,30 @@
         <v>160</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="9"/>
+      <c r="G112" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G112" s="47" t="s">
+      <c r="H112" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="I112" s="54">
+        <v>3543</v>
+      </c>
+      <c r="J112" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="H112" s="11">
-        <v>3543</v>
-      </c>
-      <c r="I112" s="14" t="s">
+      <c r="K112" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="J112" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="K112" s="11"/>
-    </row>
-    <row r="113" spans="1:11" ht="18" customHeight="1">
+      <c r="L112" s="11"/>
+    </row>
+    <row r="113" spans="1:12" ht="18" customHeight="1">
       <c r="A113" s="9">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -6728,27 +7128,30 @@
         <v>160</v>
       </c>
       <c r="D113" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="11" t="s">
+      <c r="F113" s="9"/>
+      <c r="G113" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G113" s="47" t="s">
+      <c r="H113" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="I113" s="54">
+        <v>3552</v>
+      </c>
+      <c r="J113" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="H113" s="11">
-        <v>3552</v>
-      </c>
-      <c r="I113" s="14" t="s">
+      <c r="K113" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="J113" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="K113" s="11"/>
-    </row>
-    <row r="114" spans="1:11" ht="18" customHeight="1">
+      <c r="L113" s="11"/>
+    </row>
+    <row r="114" spans="1:12" ht="18" customHeight="1">
       <c r="A114" s="9">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -6758,27 +7161,30 @@
         <v>160</v>
       </c>
       <c r="D114" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="11" t="s">
+      <c r="F114" s="9"/>
+      <c r="G114" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G114" s="47" t="s">
+      <c r="H114" s="47" t="s">
+        <v>538</v>
+      </c>
+      <c r="I114" s="54">
+        <v>3555</v>
+      </c>
+      <c r="J114" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="H114" s="11">
-        <v>3555</v>
-      </c>
-      <c r="I114" s="14" t="s">
+      <c r="K114" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="J114" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="K114" s="11"/>
-    </row>
-    <row r="115" spans="1:11" ht="18" customHeight="1">
+      <c r="L114" s="11"/>
+    </row>
+    <row r="115" spans="1:12" ht="18" customHeight="1">
       <c r="A115" s="9">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -6788,27 +7194,30 @@
         <v>160</v>
       </c>
       <c r="D115" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="11" t="s">
+      <c r="F115" s="9"/>
+      <c r="G115" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H115" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="I115" s="54">
+        <v>3479</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="H115" s="11">
-        <v>3479</v>
-      </c>
-      <c r="I115" s="11" t="s">
+      <c r="K115" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="J115" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="K115" s="11"/>
-    </row>
-    <row r="116" spans="1:11" ht="18" customHeight="1">
+      <c r="L115" s="11"/>
+    </row>
+    <row r="116" spans="1:12" ht="18" customHeight="1">
       <c r="A116" s="9">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -6817,24 +7226,27 @@
       <c r="C116" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D116" s="9"/>
+      <c r="D116" s="9" t="s">
+        <v>180</v>
+      </c>
       <c r="E116" s="9"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="14" t="s">
+      <c r="F116" s="9"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="I116" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="I116" s="14" t="s">
+      <c r="J116" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="J116" s="14" t="s">
+      <c r="K116" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="K116" s="14"/>
-    </row>
-    <row r="117" spans="1:11" s="34" customFormat="1" ht="18" customHeight="1">
+      <c r="L116" s="14"/>
+    </row>
+    <row r="117" spans="1:12" s="34" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="9">
         <f t="shared" ref="A117:A118" si="1">ROW()-1</f>
         <v>116</v>
@@ -6843,20 +7255,21 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="14" t="s">
+      <c r="F117" s="9"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="H117" s="11"/>
-      <c r="I117" s="14" t="s">
+      <c r="I117" s="54"/>
+      <c r="J117" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="J117" s="14" t="s">
+      <c r="K117" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="K117" s="14"/>
-    </row>
-    <row r="118" spans="1:11" s="34" customFormat="1" ht="18" customHeight="1">
+      <c r="L117" s="14"/>
+    </row>
+    <row r="118" spans="1:12" s="34" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="9">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6865,119 +7278,120 @@
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="14" t="s">
+      <c r="F118" s="9"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="H118" s="11"/>
-      <c r="I118" s="14">
+      <c r="I118" s="54"/>
+      <c r="J118" s="14">
         <v>200</v>
       </c>
-      <c r="J118" s="14" t="s">
+      <c r="K118" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:K119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J116" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J81" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J118" r:id="rId5" xr:uid="{254B1FDC-7117-4E81-90B7-A894B6C651B5}"/>
-    <hyperlink ref="J102" r:id="rId6" xr:uid="{3ECC36FB-5E42-4232-BC18-76734CB54B51}"/>
-    <hyperlink ref="J96" r:id="rId7" xr:uid="{932560AB-2BF4-457A-813B-D859DF41B72F}"/>
-    <hyperlink ref="J97" r:id="rId8" xr:uid="{A23DB3C4-A764-42B8-A164-683849C6235B}"/>
-    <hyperlink ref="J56" r:id="rId9" xr:uid="{563D6C05-2DDC-4734-B339-AAEB5399AD25}"/>
-    <hyperlink ref="J55" r:id="rId10" xr:uid="{7DEDCA6A-BDF8-44FE-821C-7CFC1197E052}"/>
-    <hyperlink ref="J99" r:id="rId11" xr:uid="{49C828D0-42EB-4E7F-A883-3A244F1565D6}"/>
-    <hyperlink ref="J100" r:id="rId12" xr:uid="{AC2E0147-6A0C-429F-AFDA-BEF6B7717BC3}"/>
-    <hyperlink ref="J101" r:id="rId13" xr:uid="{BCC5576B-D7E4-4A16-AF7C-C8D4BAA64A4B}"/>
-    <hyperlink ref="J34" r:id="rId14" xr:uid="{2B230C7C-005C-4F37-9DFC-29C632ECFEB8}"/>
-    <hyperlink ref="J33" r:id="rId15" xr:uid="{E5F55D83-BA89-4A1B-A876-881F40D82287}"/>
-    <hyperlink ref="J86" r:id="rId16" xr:uid="{F7E6DA3F-0EB7-44AB-BE68-425C44C7E6EA}"/>
-    <hyperlink ref="J47" r:id="rId17" xr:uid="{3E17F387-5827-4582-85C3-FA4772A5D0A9}"/>
-    <hyperlink ref="J48" r:id="rId18" xr:uid="{CBE26BBC-C7F4-4089-8223-2D69A116AB02}"/>
-    <hyperlink ref="J51" r:id="rId19" xr:uid="{B00D3A00-0C4F-4FEB-9356-27CD3E117C10}"/>
-    <hyperlink ref="J95" r:id="rId20" xr:uid="{D166DF31-3CDE-4191-9A3B-F6A3D3F4881E}"/>
-    <hyperlink ref="J92" r:id="rId21" xr:uid="{76AE3CA5-2F85-4912-A99B-78FE4965B175}"/>
-    <hyperlink ref="J38" r:id="rId22" xr:uid="{DCA41EFA-4236-4520-AF48-3570A4A94320}"/>
-    <hyperlink ref="J60" r:id="rId23" xr:uid="{D3693040-42DB-44DF-B09C-61F08B9B478D}"/>
-    <hyperlink ref="J39" r:id="rId24" xr:uid="{C8649DA0-0C3F-4E55-A5F2-671A2759DFF9}"/>
-    <hyperlink ref="J109" r:id="rId25" xr:uid="{AAB76E46-FCFC-44DA-92EE-5C2AC4564DFD}"/>
-    <hyperlink ref="J107" r:id="rId26" xr:uid="{A7E83A82-71D6-43FC-AAE5-A6118DCA089B}"/>
-    <hyperlink ref="J24" r:id="rId27" xr:uid="{EC4BB7BD-40FA-424A-A08D-44C145A6CEFE}"/>
-    <hyperlink ref="J85" r:id="rId28" xr:uid="{B40877CA-9C1E-4C4B-B899-A26491F2E2D7}"/>
-    <hyperlink ref="J90" r:id="rId29" xr:uid="{BFCA8A17-C33E-4DF3-A6C2-E88CF1B2398D}"/>
-    <hyperlink ref="J93" r:id="rId30" xr:uid="{508F9120-6C0C-4E76-8366-763C51A0ACC5}"/>
-    <hyperlink ref="J105" r:id="rId31" xr:uid="{63A5991B-713E-4514-B8B6-F7A9E15171E6}"/>
-    <hyperlink ref="J52" r:id="rId32" xr:uid="{9255134C-9160-4F65-B727-B31203260896}"/>
-    <hyperlink ref="J13" r:id="rId33" xr:uid="{4FB977E0-20D8-4A18-BF38-22A5172E0387}"/>
-    <hyperlink ref="J94" r:id="rId34" xr:uid="{39262069-0B86-4760-96F1-B39282468BEE}"/>
-    <hyperlink ref="J28" r:id="rId35" xr:uid="{22E7840F-65C5-4423-B640-E2E41224A48A}"/>
-    <hyperlink ref="J80" r:id="rId36" xr:uid="{739D8833-11CB-43BB-8A5E-C9335CD9D780}"/>
-    <hyperlink ref="J68" r:id="rId37" xr:uid="{260B9B2F-D8AA-49EF-9F03-F03049070E41}"/>
-    <hyperlink ref="J25" r:id="rId38" xr:uid="{B1C598EB-5D16-48C4-B374-C03ABC1529CE}"/>
-    <hyperlink ref="J18" r:id="rId39" xr:uid="{28B087BA-7118-4E88-B8E0-5288653AAAE0}"/>
-    <hyperlink ref="J58" r:id="rId40" xr:uid="{73660E6F-6BAE-4E9F-8289-1AC56FFB668A}"/>
-    <hyperlink ref="J59" r:id="rId41" xr:uid="{11EA9E9A-68EF-450C-B3CB-0793C5E2D61B}"/>
-    <hyperlink ref="J17" r:id="rId42" xr:uid="{330B35CF-9772-4595-AA94-24AED56F500A}"/>
-    <hyperlink ref="J72" r:id="rId43" xr:uid="{580EF745-50D6-4D8D-92CC-1947FCD63D6B}"/>
-    <hyperlink ref="J87" r:id="rId44" xr:uid="{8452E347-98AC-4A59-9CC1-F3B104AEACE7}"/>
-    <hyperlink ref="J19" r:id="rId45" xr:uid="{11A9F575-0E43-4223-A27F-B5926D0FA145}"/>
-    <hyperlink ref="J106" r:id="rId46" xr:uid="{52BA5A97-DE03-4415-AF7B-56A07035EFF6}"/>
-    <hyperlink ref="J8" r:id="rId47" xr:uid="{60B743E9-BB79-4E17-8211-775A3513EA3C}"/>
-    <hyperlink ref="J44" r:id="rId48" xr:uid="{9AE1C17C-4932-46A7-8B3C-11E198DE4AE4}"/>
-    <hyperlink ref="J10" r:id="rId49" xr:uid="{7AFE369E-F845-4967-9E26-D53C93E379E2}"/>
-    <hyperlink ref="J21" r:id="rId50" xr:uid="{436283A2-A7C9-44C7-846A-0EE01DCF0927}"/>
-    <hyperlink ref="J36" r:id="rId51" xr:uid="{73703B7E-E7A4-414D-BF2D-9CBC04D860ED}"/>
-    <hyperlink ref="J88" r:id="rId52" xr:uid="{9ECF7C1F-055E-4898-B24D-72829AD6E37B}"/>
-    <hyperlink ref="J37" r:id="rId53" xr:uid="{C89B4347-F31C-4BE2-9BFE-FB8481F31598}"/>
-    <hyperlink ref="J108" r:id="rId54" xr:uid="{B1F04D3A-7A24-4A49-879E-79239B91C9BA}"/>
-    <hyperlink ref="J73" r:id="rId55" xr:uid="{B3BE4C24-AA76-4590-A898-DB0B9ADB6DD1}"/>
-    <hyperlink ref="J41" r:id="rId56" xr:uid="{31F1041C-53F0-474E-9F90-AA0F06DC2BAC}"/>
-    <hyperlink ref="J22" r:id="rId57" xr:uid="{A98E12BB-F9E6-4B92-A364-EA6B0CE40395}"/>
-    <hyperlink ref="J26" r:id="rId58" xr:uid="{793FF680-1653-4E74-B746-02951156FD23}"/>
-    <hyperlink ref="J103" r:id="rId59" xr:uid="{DF6CFA32-E26D-42E4-8CCA-7E3FE0E77DDE}"/>
-    <hyperlink ref="J110" r:id="rId60" xr:uid="{4FE0CA24-5A37-454F-94D5-7AA349B2B90D}"/>
-    <hyperlink ref="J62" r:id="rId61" xr:uid="{E3CCC8E0-772A-456E-B5CC-ED6227F39F53}"/>
-    <hyperlink ref="J64" r:id="rId62" xr:uid="{63933C25-0D7D-4DAD-A453-FF15AC419AFE}"/>
-    <hyperlink ref="J83" r:id="rId63" xr:uid="{CDD9BACE-489D-4438-A243-9FC831375B8F}"/>
-    <hyperlink ref="J14" r:id="rId64" xr:uid="{CFF5A394-EE24-4121-966F-5155549CB2A8}"/>
-    <hyperlink ref="J16" r:id="rId65" xr:uid="{022042DB-0C1B-4715-99BD-0B19B48E38FD}"/>
-    <hyperlink ref="J11" r:id="rId66" xr:uid="{B5D3464E-65A0-4913-A447-7C2A2CBC9FB4}"/>
-    <hyperlink ref="J15" r:id="rId67" xr:uid="{3379CCAE-365F-4C60-9E8E-3C92DF3916F8}"/>
-    <hyperlink ref="J9" r:id="rId68" xr:uid="{72967A2A-E469-47A0-B1C2-D4354E252119}"/>
-    <hyperlink ref="J40" r:id="rId69" xr:uid="{E5A86932-F084-423B-BFF8-A4C92F723DD8}"/>
-    <hyperlink ref="J78" r:id="rId70" xr:uid="{B313998C-6817-4A0A-AC6B-7C9291311D84}"/>
-    <hyperlink ref="J91" r:id="rId71" xr:uid="{A4548FC2-99A7-42FA-AE1C-F33DAF9227FC}"/>
-    <hyperlink ref="J32" r:id="rId72" xr:uid="{4B021479-56FF-4F9D-A353-04335D6D8F45}"/>
-    <hyperlink ref="J111" r:id="rId73" xr:uid="{EBB3C4D3-B805-4E62-99E5-9E50FC9BD473}"/>
-    <hyperlink ref="J115" r:id="rId74" xr:uid="{6102F552-05B3-4F2E-8A7B-AC8EF4F57F37}"/>
-    <hyperlink ref="J112" r:id="rId75" xr:uid="{E8CCA1E2-6905-4008-89CD-3B36ABF18B5C}"/>
-    <hyperlink ref="J50" r:id="rId76" xr:uid="{271C159C-DD40-44A0-916E-02D9FCA8DA4B}"/>
-    <hyperlink ref="J65" r:id="rId77" xr:uid="{85EBC5F5-0372-41BC-AEF6-445974BE222E}"/>
-    <hyperlink ref="J49" r:id="rId78" xr:uid="{56FCFD19-6A7D-4198-8EAC-710B2895D3B7}"/>
-    <hyperlink ref="J113" r:id="rId79" xr:uid="{8E655ED8-5F0A-4195-B173-5A3597C62783}"/>
-    <hyperlink ref="J66" r:id="rId80" xr:uid="{68E8290B-3F7E-4B99-B119-AF9B2E26E55C}"/>
-    <hyperlink ref="J89" r:id="rId81" xr:uid="{E237F0A7-E11C-4526-9509-285ABA04084B}"/>
-    <hyperlink ref="J69" r:id="rId82" xr:uid="{36207B89-13C2-451B-890B-9DDDA122B06A}"/>
-    <hyperlink ref="J114" r:id="rId83" xr:uid="{0DDB1645-14EC-43E3-9E22-5648F42CDC38}"/>
-    <hyperlink ref="J61" r:id="rId84" xr:uid="{842B306C-8E66-4229-A7E6-E4A6F4B7DEAE}"/>
-    <hyperlink ref="J67" r:id="rId85" xr:uid="{071C5ED0-CDF7-4085-881B-A0D47D790661}"/>
-    <hyperlink ref="J79" r:id="rId86" xr:uid="{A08A7101-FFE2-404C-8C56-CD5AD4DEFD7E}"/>
-    <hyperlink ref="J82" r:id="rId87" xr:uid="{077DB720-35FE-47FA-844E-860FFA5878B5}"/>
-    <hyperlink ref="J74" r:id="rId88" xr:uid="{FE8581DC-7FFA-4A25-B197-571946AF9EF2}"/>
-    <hyperlink ref="J75" r:id="rId89" xr:uid="{D2282CB4-AD2E-40E5-A603-DEE043D944CC}"/>
-    <hyperlink ref="J84" r:id="rId90" xr:uid="{4E692294-9162-4D43-9018-255517771383}"/>
-    <hyperlink ref="J98" r:id="rId91" xr:uid="{9B7E6090-65C0-4E54-B3DC-5CC4EA45B794}"/>
-    <hyperlink ref="J35" r:id="rId92" xr:uid="{EE9E245A-2B46-44A0-B2E2-5D557714CB8C}"/>
-    <hyperlink ref="J23" r:id="rId93" xr:uid="{DCCA1EDF-1E81-4249-BFDD-88AD4E9C7F18}"/>
-    <hyperlink ref="J63" r:id="rId94" xr:uid="{31904D80-EE4B-4224-8CBC-84BE3A015461}"/>
-    <hyperlink ref="J53" r:id="rId95" xr:uid="{4A28306D-B62E-4896-9333-48E594549854}"/>
+    <hyperlink ref="K42" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K116" r:id="rId2" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K81" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K118" r:id="rId5" xr:uid="{254B1FDC-7117-4E81-90B7-A894B6C651B5}"/>
+    <hyperlink ref="K102" r:id="rId6" xr:uid="{3ECC36FB-5E42-4232-BC18-76734CB54B51}"/>
+    <hyperlink ref="K96" r:id="rId7" xr:uid="{932560AB-2BF4-457A-813B-D859DF41B72F}"/>
+    <hyperlink ref="K97" r:id="rId8" xr:uid="{A23DB3C4-A764-42B8-A164-683849C6235B}"/>
+    <hyperlink ref="K56" r:id="rId9" xr:uid="{563D6C05-2DDC-4734-B339-AAEB5399AD25}"/>
+    <hyperlink ref="K55" r:id="rId10" xr:uid="{7DEDCA6A-BDF8-44FE-821C-7CFC1197E052}"/>
+    <hyperlink ref="K99" r:id="rId11" xr:uid="{49C828D0-42EB-4E7F-A883-3A244F1565D6}"/>
+    <hyperlink ref="K100" r:id="rId12" xr:uid="{AC2E0147-6A0C-429F-AFDA-BEF6B7717BC3}"/>
+    <hyperlink ref="K101" r:id="rId13" xr:uid="{BCC5576B-D7E4-4A16-AF7C-C8D4BAA64A4B}"/>
+    <hyperlink ref="K34" r:id="rId14" xr:uid="{2B230C7C-005C-4F37-9DFC-29C632ECFEB8}"/>
+    <hyperlink ref="K33" r:id="rId15" xr:uid="{E5F55D83-BA89-4A1B-A876-881F40D82287}"/>
+    <hyperlink ref="K86" r:id="rId16" xr:uid="{F7E6DA3F-0EB7-44AB-BE68-425C44C7E6EA}"/>
+    <hyperlink ref="K47" r:id="rId17" xr:uid="{3E17F387-5827-4582-85C3-FA4772A5D0A9}"/>
+    <hyperlink ref="K48" r:id="rId18" xr:uid="{CBE26BBC-C7F4-4089-8223-2D69A116AB02}"/>
+    <hyperlink ref="K51" r:id="rId19" xr:uid="{B00D3A00-0C4F-4FEB-9356-27CD3E117C10}"/>
+    <hyperlink ref="K95" r:id="rId20" xr:uid="{D166DF31-3CDE-4191-9A3B-F6A3D3F4881E}"/>
+    <hyperlink ref="K92" r:id="rId21" xr:uid="{76AE3CA5-2F85-4912-A99B-78FE4965B175}"/>
+    <hyperlink ref="K38" r:id="rId22" xr:uid="{DCA41EFA-4236-4520-AF48-3570A4A94320}"/>
+    <hyperlink ref="K60" r:id="rId23" xr:uid="{D3693040-42DB-44DF-B09C-61F08B9B478D}"/>
+    <hyperlink ref="K39" r:id="rId24" xr:uid="{C8649DA0-0C3F-4E55-A5F2-671A2759DFF9}"/>
+    <hyperlink ref="K109" r:id="rId25" xr:uid="{AAB76E46-FCFC-44DA-92EE-5C2AC4564DFD}"/>
+    <hyperlink ref="K107" r:id="rId26" xr:uid="{A7E83A82-71D6-43FC-AAE5-A6118DCA089B}"/>
+    <hyperlink ref="K24" r:id="rId27" xr:uid="{EC4BB7BD-40FA-424A-A08D-44C145A6CEFE}"/>
+    <hyperlink ref="K85" r:id="rId28" xr:uid="{B40877CA-9C1E-4C4B-B899-A26491F2E2D7}"/>
+    <hyperlink ref="K90" r:id="rId29" xr:uid="{BFCA8A17-C33E-4DF3-A6C2-E88CF1B2398D}"/>
+    <hyperlink ref="K93" r:id="rId30" xr:uid="{508F9120-6C0C-4E76-8366-763C51A0ACC5}"/>
+    <hyperlink ref="K105" r:id="rId31" xr:uid="{63A5991B-713E-4514-B8B6-F7A9E15171E6}"/>
+    <hyperlink ref="K52" r:id="rId32" xr:uid="{9255134C-9160-4F65-B727-B31203260896}"/>
+    <hyperlink ref="K13" r:id="rId33" xr:uid="{4FB977E0-20D8-4A18-BF38-22A5172E0387}"/>
+    <hyperlink ref="K94" r:id="rId34" xr:uid="{39262069-0B86-4760-96F1-B39282468BEE}"/>
+    <hyperlink ref="K28" r:id="rId35" xr:uid="{22E7840F-65C5-4423-B640-E2E41224A48A}"/>
+    <hyperlink ref="K80" r:id="rId36" xr:uid="{739D8833-11CB-43BB-8A5E-C9335CD9D780}"/>
+    <hyperlink ref="K68" r:id="rId37" xr:uid="{260B9B2F-D8AA-49EF-9F03-F03049070E41}"/>
+    <hyperlink ref="K25" r:id="rId38" xr:uid="{B1C598EB-5D16-48C4-B374-C03ABC1529CE}"/>
+    <hyperlink ref="K18" r:id="rId39" xr:uid="{28B087BA-7118-4E88-B8E0-5288653AAAE0}"/>
+    <hyperlink ref="K58" r:id="rId40" xr:uid="{73660E6F-6BAE-4E9F-8289-1AC56FFB668A}"/>
+    <hyperlink ref="K59" r:id="rId41" xr:uid="{11EA9E9A-68EF-450C-B3CB-0793C5E2D61B}"/>
+    <hyperlink ref="K17" r:id="rId42" xr:uid="{330B35CF-9772-4595-AA94-24AED56F500A}"/>
+    <hyperlink ref="K72" r:id="rId43" xr:uid="{580EF745-50D6-4D8D-92CC-1947FCD63D6B}"/>
+    <hyperlink ref="K87" r:id="rId44" xr:uid="{8452E347-98AC-4A59-9CC1-F3B104AEACE7}"/>
+    <hyperlink ref="K19" r:id="rId45" xr:uid="{11A9F575-0E43-4223-A27F-B5926D0FA145}"/>
+    <hyperlink ref="K106" r:id="rId46" xr:uid="{52BA5A97-DE03-4415-AF7B-56A07035EFF6}"/>
+    <hyperlink ref="K8" r:id="rId47" xr:uid="{60B743E9-BB79-4E17-8211-775A3513EA3C}"/>
+    <hyperlink ref="K44" r:id="rId48" xr:uid="{9AE1C17C-4932-46A7-8B3C-11E198DE4AE4}"/>
+    <hyperlink ref="K10" r:id="rId49" xr:uid="{7AFE369E-F845-4967-9E26-D53C93E379E2}"/>
+    <hyperlink ref="K21" r:id="rId50" xr:uid="{436283A2-A7C9-44C7-846A-0EE01DCF0927}"/>
+    <hyperlink ref="K36" r:id="rId51" xr:uid="{73703B7E-E7A4-414D-BF2D-9CBC04D860ED}"/>
+    <hyperlink ref="K88" r:id="rId52" xr:uid="{9ECF7C1F-055E-4898-B24D-72829AD6E37B}"/>
+    <hyperlink ref="K37" r:id="rId53" xr:uid="{C89B4347-F31C-4BE2-9BFE-FB8481F31598}"/>
+    <hyperlink ref="K108" r:id="rId54" xr:uid="{B1F04D3A-7A24-4A49-879E-79239B91C9BA}"/>
+    <hyperlink ref="K73" r:id="rId55" xr:uid="{B3BE4C24-AA76-4590-A898-DB0B9ADB6DD1}"/>
+    <hyperlink ref="K41" r:id="rId56" xr:uid="{31F1041C-53F0-474E-9F90-AA0F06DC2BAC}"/>
+    <hyperlink ref="K22" r:id="rId57" xr:uid="{A98E12BB-F9E6-4B92-A364-EA6B0CE40395}"/>
+    <hyperlink ref="K26" r:id="rId58" xr:uid="{793FF680-1653-4E74-B746-02951156FD23}"/>
+    <hyperlink ref="K103" r:id="rId59" xr:uid="{DF6CFA32-E26D-42E4-8CCA-7E3FE0E77DDE}"/>
+    <hyperlink ref="K110" r:id="rId60" xr:uid="{4FE0CA24-5A37-454F-94D5-7AA349B2B90D}"/>
+    <hyperlink ref="K62" r:id="rId61" xr:uid="{E3CCC8E0-772A-456E-B5CC-ED6227F39F53}"/>
+    <hyperlink ref="K64" r:id="rId62" xr:uid="{63933C25-0D7D-4DAD-A453-FF15AC419AFE}"/>
+    <hyperlink ref="K83" r:id="rId63" xr:uid="{CDD9BACE-489D-4438-A243-9FC831375B8F}"/>
+    <hyperlink ref="K14" r:id="rId64" xr:uid="{CFF5A394-EE24-4121-966F-5155549CB2A8}"/>
+    <hyperlink ref="K16" r:id="rId65" xr:uid="{022042DB-0C1B-4715-99BD-0B19B48E38FD}"/>
+    <hyperlink ref="K11" r:id="rId66" xr:uid="{B5D3464E-65A0-4913-A447-7C2A2CBC9FB4}"/>
+    <hyperlink ref="K15" r:id="rId67" xr:uid="{3379CCAE-365F-4C60-9E8E-3C92DF3916F8}"/>
+    <hyperlink ref="K9" r:id="rId68" xr:uid="{72967A2A-E469-47A0-B1C2-D4354E252119}"/>
+    <hyperlink ref="K40" r:id="rId69" xr:uid="{E5A86932-F084-423B-BFF8-A4C92F723DD8}"/>
+    <hyperlink ref="K78" r:id="rId70" xr:uid="{B313998C-6817-4A0A-AC6B-7C9291311D84}"/>
+    <hyperlink ref="K91" r:id="rId71" xr:uid="{A4548FC2-99A7-42FA-AE1C-F33DAF9227FC}"/>
+    <hyperlink ref="K32" r:id="rId72" xr:uid="{4B021479-56FF-4F9D-A353-04335D6D8F45}"/>
+    <hyperlink ref="K111" r:id="rId73" xr:uid="{EBB3C4D3-B805-4E62-99E5-9E50FC9BD473}"/>
+    <hyperlink ref="K115" r:id="rId74" xr:uid="{6102F552-05B3-4F2E-8A7B-AC8EF4F57F37}"/>
+    <hyperlink ref="K112" r:id="rId75" xr:uid="{E8CCA1E2-6905-4008-89CD-3B36ABF18B5C}"/>
+    <hyperlink ref="K50" r:id="rId76" xr:uid="{271C159C-DD40-44A0-916E-02D9FCA8DA4B}"/>
+    <hyperlink ref="K65" r:id="rId77" xr:uid="{85EBC5F5-0372-41BC-AEF6-445974BE222E}"/>
+    <hyperlink ref="K49" r:id="rId78" xr:uid="{56FCFD19-6A7D-4198-8EAC-710B2895D3B7}"/>
+    <hyperlink ref="K113" r:id="rId79" xr:uid="{8E655ED8-5F0A-4195-B173-5A3597C62783}"/>
+    <hyperlink ref="K66" r:id="rId80" xr:uid="{68E8290B-3F7E-4B99-B119-AF9B2E26E55C}"/>
+    <hyperlink ref="K89" r:id="rId81" xr:uid="{E237F0A7-E11C-4526-9509-285ABA04084B}"/>
+    <hyperlink ref="K69" r:id="rId82" xr:uid="{36207B89-13C2-451B-890B-9DDDA122B06A}"/>
+    <hyperlink ref="K114" r:id="rId83" xr:uid="{0DDB1645-14EC-43E3-9E22-5648F42CDC38}"/>
+    <hyperlink ref="K61" r:id="rId84" xr:uid="{842B306C-8E66-4229-A7E6-E4A6F4B7DEAE}"/>
+    <hyperlink ref="K67" r:id="rId85" xr:uid="{071C5ED0-CDF7-4085-881B-A0D47D790661}"/>
+    <hyperlink ref="K79" r:id="rId86" xr:uid="{A08A7101-FFE2-404C-8C56-CD5AD4DEFD7E}"/>
+    <hyperlink ref="K82" r:id="rId87" xr:uid="{077DB720-35FE-47FA-844E-860FFA5878B5}"/>
+    <hyperlink ref="K74" r:id="rId88" xr:uid="{FE8581DC-7FFA-4A25-B197-571946AF9EF2}"/>
+    <hyperlink ref="K75" r:id="rId89" xr:uid="{D2282CB4-AD2E-40E5-A603-DEE043D944CC}"/>
+    <hyperlink ref="K84" r:id="rId90" xr:uid="{4E692294-9162-4D43-9018-255517771383}"/>
+    <hyperlink ref="K98" r:id="rId91" xr:uid="{9B7E6090-65C0-4E54-B3DC-5CC4EA45B794}"/>
+    <hyperlink ref="K35" r:id="rId92" xr:uid="{EE9E245A-2B46-44A0-B2E2-5D557714CB8C}"/>
+    <hyperlink ref="K23" r:id="rId93" xr:uid="{DCCA1EDF-1E81-4249-BFDD-88AD4E9C7F18}"/>
+    <hyperlink ref="K63" r:id="rId94" xr:uid="{31904D80-EE4B-4224-8CBC-84BE3A015461}"/>
+    <hyperlink ref="K53" r:id="rId95" xr:uid="{4A28306D-B62E-4896-9333-48E594549854}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7373,11 +7787,11 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7385,11 +7799,11 @@
         <f t="shared" ref="A3:A38" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>353</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7397,11 +7811,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7412,10 +7826,10 @@
       <c r="B5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="62"/>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7426,10 +7840,10 @@
       <c r="B6" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="55"/>
+      <c r="C6" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="62"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7440,10 +7854,10 @@
       <c r="B7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="55"/>
+      <c r="C7" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="62"/>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7454,10 +7868,10 @@
       <c r="B8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="55"/>
+      <c r="C8" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="62"/>
       <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7465,11 +7879,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7478,12 +7892,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7492,12 +7906,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="55"/>
+        <v>346</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="62"/>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7505,11 +7919,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7517,11 +7931,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7529,11 +7943,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7541,11 +7955,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="B15" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7553,11 +7967,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7566,12 +7980,12 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C17" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7580,12 +7994,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C18" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7593,11 +8007,11 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="57"/>
+      <c r="B19" s="64" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7605,11 +8019,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="61"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7617,11 +8031,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="57"/>
+      <c r="B21" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="61"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7629,11 +8043,11 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7641,11 +8055,11 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="57"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7656,10 +8070,10 @@
       <c r="B24" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="29"/>
@@ -7672,11 +8086,11 @@
       <c r="B25" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>355</v>
+      <c r="C25" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>354</v>
       </c>
       <c r="E25" s="29"/>
     </row>
@@ -7685,11 +8099,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="B26" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7698,12 +8112,12 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="62" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="29"/>
@@ -7714,12 +8128,12 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C28" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="62" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="29"/>
@@ -7730,13 +8144,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C29" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>358</v>
+      <c r="D29" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="E29" s="29"/>
     </row>
@@ -7745,11 +8159,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1">
@@ -7757,11 +8171,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7769,11 +8183,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="57"/>
+      <c r="B32" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7782,12 +8196,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="D33" s="55"/>
+        <v>358</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="D33" s="62"/>
       <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7796,12 +8210,12 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="D34" s="55"/>
+        <v>358</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="62"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="18" customHeight="1">
@@ -7809,11 +8223,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="57"/>
+      <c r="B35" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="18" customHeight="1">
@@ -7821,11 +8235,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>364</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="57"/>
+      <c r="B36" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" ht="18" customHeight="1">
@@ -7834,12 +8248,12 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="53" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="62" t="s">
         <v>140</v>
       </c>
       <c r="E37" s="31"/>
@@ -7849,22 +8263,33 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="31"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:D38" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="37">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -7881,22 +8306,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7955,13 +8369,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>492</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8054,7 +8468,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>331</v>
@@ -8066,13 +8480,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>342</v>
-      </c>
       <c r="E12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8120,10 +8534,10 @@
         <v>139</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8132,16 +8546,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>337</v>
       </c>
       <c r="D17" t="s">
+        <v>372</v>
+      </c>
+      <c r="E17" t="s">
         <v>373</v>
-      </c>
-      <c r="E17" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8207,7 +8621,7 @@
         <v>239</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.25" thickBot="1">
@@ -8225,7 +8639,7 @@
         <v>239</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/data/employees.xlsx
+++ b/data/employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneTouch Portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502682F-1579-4611-A62C-C4F8A2721DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA97750-F4A8-4D20-AE03-495C8163E050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24684" yWindow="-108" windowWidth="24792" windowHeight="14976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="在職員工" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="591">
   <si>
     <t>No.</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2137,155 +2137,160 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Miffy Tsai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>miffy.tsai@unitedhotel.com.tw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉賜幸</t>
+  </si>
+  <si>
+    <t>Cindy Liu</t>
+  </si>
+  <si>
+    <t>wen.chang@unitedhotel.com.tw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cindy.liu@unitedhotel.com.tw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝鎮陽</t>
+  </si>
+  <si>
+    <t>neo.hsieh@unitedhotel.com.tw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neo Hsieh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐飲部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板石咖啡廳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服務員</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡秀英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiu Ying Tsai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiuying.tsai@unitedhotel.com.tw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王文雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven Wang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>steven.wang@unitedhotel.com.tw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁祐誠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>You-Cheng, Liang</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>youcheng.liang@unitedhotel.com.tw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>關立娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lili Guan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lili.guan@unitedhotel.com.tw</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭怡君</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patty Cheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>patty.cheng@unitedhotel.com.tw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分機號碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0792</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>蔡憶晴</t>
-  </si>
-  <si>
-    <t>Miffy Tsai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>miffy.tsai@unitedhotel.com.tw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉賜幸</t>
-  </si>
-  <si>
-    <t>Cindy Liu</t>
-  </si>
-  <si>
-    <t>wen.chang@unitedhotel.com.tw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cindy.liu@unitedhotel.com.tw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>謝鎮陽</t>
-  </si>
-  <si>
-    <t>neo.hsieh@unitedhotel.com.tw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neo Hsieh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐飲部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>板石咖啡廳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服務員</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡秀英</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiu Ying Tsai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiuying.tsai@unitedhotel.com.tw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王文雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steven Wang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>steven.wang@unitedhotel.com.tw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁祐誠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>You-Cheng, Liang</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>youcheng.liang@unitedhotel.com.tw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>關立娟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lili Guan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lili.guan@unitedhotel.com.tw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄭怡君</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patty Cheng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>patty.cheng@unitedhotel.com.tw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分機號碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0007</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0792</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3571</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3406,10 +3411,10 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I77" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" customHeight="1"/>
@@ -3437,13 +3442,13 @@
         <v>201</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>2</v>
@@ -3464,7 +3469,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1">
@@ -3490,7 +3495,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="16"/>
@@ -3517,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>229</v>
@@ -3546,7 +3551,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>11</v>
@@ -3577,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>13</v>
@@ -3608,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -3635,7 +3640,7 @@
         <v>185</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>16</v>
@@ -4140,16 +4145,16 @@
         <v>213</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I23" s="54">
         <v>3562</v>
       </c>
       <c r="J23" s="45" t="s">
+        <v>570</v>
+      </c>
+      <c r="K23" s="14" t="s">
         <v>571</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>572</v>
       </c>
       <c r="L23" s="14"/>
     </row>
@@ -4267,7 +4272,7 @@
         <v>204</v>
       </c>
       <c r="I27" s="56" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J27" s="49" t="s">
         <v>203</v>
@@ -4518,16 +4523,16 @@
         <v>57</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I35" s="54">
         <v>3561</v>
       </c>
       <c r="J35" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="K35" s="14" t="s">
         <v>568</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>569</v>
       </c>
       <c r="L35" s="14"/>
     </row>
@@ -5112,16 +5117,16 @@
         <v>300</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I53" s="57">
         <v>3564</v>
       </c>
       <c r="J53" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="K53" s="52" t="s">
         <v>577</v>
-      </c>
-      <c r="K53" s="52" t="s">
-        <v>578</v>
       </c>
       <c r="L53" s="52"/>
     </row>
@@ -5290,7 +5295,7 @@
         <v>20</v>
       </c>
       <c r="I58" s="56" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J58" s="50" t="s">
         <v>21</v>
@@ -5458,16 +5463,16 @@
         <v>57</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I63" s="58">
         <v>3563</v>
       </c>
       <c r="J63" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="K63" s="14" t="s">
         <v>574</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>575</v>
       </c>
       <c r="L63" s="14"/>
     </row>
@@ -5844,7 +5849,7 @@
         <v>232</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L74" s="12"/>
     </row>
@@ -5870,16 +5875,16 @@
         <v>230</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I75" s="54">
         <v>3558</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L75" s="12"/>
     </row>
@@ -6101,14 +6106,16 @@
         <v>57</v>
       </c>
       <c r="H82" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="I82" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="J82" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="I82" s="57"/>
-      <c r="J82" s="41" t="s">
+      <c r="K82" s="41" t="s">
         <v>552</v>
-      </c>
-      <c r="K82" s="41" t="s">
-        <v>553</v>
       </c>
       <c r="L82" s="41"/>
     </row>
@@ -6169,16 +6176,16 @@
         <v>159</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I84" s="54">
         <v>3440</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L84" s="11"/>
     </row>
@@ -6628,29 +6635,29 @@
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="H98" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="I98" s="54">
         <v>3560</v>
       </c>
       <c r="J98" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K98" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>566</v>
       </c>
       <c r="L98" s="11"/>
     </row>
